--- a/2021-survey.xlsx
+++ b/2021-survey.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p_forceli\Downloads\8089068_202102231019015825.csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\2021-survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2741A809-BB74-4CD8-9A47-68504D727B7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2129B51-0887-4682-A1A5-D4EF5ECB7DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
   </bookViews>
   <sheets>
-    <sheet name="8089068_202102231019015825" sheetId="1" r:id="rId1"/>
+    <sheet name="2021-survey" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="525">
   <si>
     <t>编号</t>
   </si>
@@ -79,12 +79,129 @@
     <t>中国</t>
   </si>
   <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>厦门市</t>
+  </si>
+  <si>
+    <t>本来是非计算机专业，尤其讨厌社交，感觉这辈子都不是很想和人说话，而计算机这个专业当时感觉或许可以避免交际，而且感觉很高大上，说出去也不会很掉价，于是转专业到计算机了。</t>
+  </si>
+  <si>
+    <t>转专业后不太跟不上，又有点社恐，所以本来问一下就能解决的问题，往往自己琢磨半天。后面各个语言都学了一点后，大部分问题google都能解决。</t>
+  </si>
+  <si>
+    <t>有，又没。目前从事的算是该行业在云上的应用，算是挺有前景的，但自身技术实力有限，又对公司目前采取的技术方案颇有意见，觉得做成类似产品的可能不是我们，或我。</t>
+  </si>
+  <si>
+    <t>工资还行；不用太多应酬；平时在家玩电脑也不太会被说；工作相对比较单纯，不用勾心斗角。</t>
+  </si>
+  <si>
+    <t>我是fw，就不误人子弟了</t>
+  </si>
+  <si>
     <t>广东省</t>
   </si>
   <si>
     <t>深圳市</t>
   </si>
   <si>
+    <t>爱好变成了职业</t>
+  </si>
+  <si>
+    <t>无目的的加班，临时开会</t>
+  </si>
+  <si>
+    <t>提升不上去</t>
+  </si>
+  <si>
+    <t>没有，给老板挣钱</t>
+  </si>
+  <si>
+    <t>戒网</t>
+  </si>
+  <si>
+    <t>看书</t>
+  </si>
+  <si>
+    <t>四川省</t>
+  </si>
+  <si>
+    <t>成都市</t>
+  </si>
+  <si>
+    <t>从小学开始就喜欢鼓捣各种电子玩具，逐渐为工科打下基础，初高中开始特别喜欢玩电脑，不仅仅局限于游戏，也喜欢了解其构造，其他玩法，高中一致被推选为班上的电教员（管理电视，投影等设备），大学毅然选了计算机专业，直到现在开始搞前端 : )</t>
+  </si>
+  <si>
+    <t>java是真的搞不懂，所以去了前端</t>
+  </si>
+  <si>
+    <t>没那种高度</t>
+  </si>
+  <si>
+    <t>适合自己的性格</t>
+  </si>
+  <si>
+    <t>我还是菜狗，就不乱分享了</t>
+  </si>
+  <si>
+    <t>易语言做外挂</t>
+  </si>
+  <si>
+    <t>维护由垃圾代码堆积而成的老项目</t>
+  </si>
+  <si>
+    <t>已经解决的问题，都已不能称之为难题，所以我忘了它们</t>
+  </si>
+  <si>
+    <t>互联网的社会价值是不言而喻的，看看我们现在使用的嘀嘀打车，抖音，淘宝。虽然我没有直接参与这些项目，但是大山有多高，山脚的每一粒沙石都是不可或缺的，没有我们这千千万万的普通互联网从业人员，互联网的山能那么高吗</t>
+  </si>
+  <si>
+    <t>培养了抽象思维，逻辑性强，这让我遇事更冷静，遇到任何问题都会去思考。这让我很快乐，很自信</t>
+  </si>
+  <si>
+    <t>我推荐多和同事沟通，无论是讨论遇到的问题还是分享编程技巧，这有助于改善程序员职业特有的一些问题（例如说程序员话少，内向等）</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>喜欢计算机</t>
+  </si>
+  <si>
+    <t>画饼</t>
+  </si>
+  <si>
+    <t>没有需求提供</t>
+  </si>
+  <si>
+    <t>一般吧</t>
+  </si>
+  <si>
+    <t>接触新技术</t>
+  </si>
+  <si>
+    <t>坚信如果程序有问题，一定是代码有bug，不是计算机出错了</t>
+  </si>
+  <si>
+    <t>被原来公司(山航)开除， 为了找一份能养活自己的工作. 自学当了996的最低端码农.</t>
+  </si>
+  <si>
+    <t>薪水低</t>
+  </si>
+  <si>
+    <t>入门的花， 单纯代码的逻辑并不难学，难的是相关知识太多了. 都要懂一点才行.</t>
+  </si>
+  <si>
+    <t>我的工作没有任何社会价值， 单纯为了养活自己找的这份工作.</t>
+  </si>
+  <si>
+    <t>没有好处.</t>
+  </si>
+  <si>
+    <t>我是快40岁自学转行当码农的， 而且说话略有口吃. 我这种人都可以， 地球上绝大多数人都可以转行当码农吧.</t>
+  </si>
+  <si>
     <t>二本院校机械专业，第一份工作阴差阳错做的管理工资低行业天花板低，看不到未来生活的希望，遂转行至计算机</t>
   </si>
   <si>
@@ -142,9 +259,6 @@
     <t>说话之前多在脑子里面想一想是否合适</t>
   </si>
   <si>
-    <t>福建省</t>
-  </si>
-  <si>
     <t>三明市</t>
   </si>
   <si>
@@ -193,12 +307,6 @@
     <t>不管用不用得到，都要看一看，了解一下，但不必要马上开始学习，等需要的时候在学习。</t>
   </si>
   <si>
-    <t>四川省</t>
-  </si>
-  <si>
-    <t>成都市</t>
-  </si>
-  <si>
     <t>出国去溜了一圈回来发现自己原来真正喜欢的时计算机（简而言之就是因为兴趣和热爱计算机）！（本专业是英文。。。）于是就自学+半看网课（那段时间简直疯狂，写代码写到连吃饭都觉得多余。。。现在回归正常三餐时间，每天持续练习），现在主攻Python数据分析、数据开发方向。虽然不是专业计算机，路还很长，但是我会继续走下去！</t>
   </si>
   <si>
@@ -280,9 +388,6 @@
     <t>刚工作没多久  没啥方法</t>
   </si>
   <si>
-    <t>北京市</t>
-  </si>
-  <si>
     <t>因为真的喜欢计算机，喜欢技术，想发明能改变世界的代码。</t>
   </si>
   <si>
@@ -377,9 +482,6 @@
   </si>
   <si>
     <t>冷静、细心、耐心</t>
-  </si>
-  <si>
-    <t>厦门市</t>
   </si>
   <si>
     <t>对游戏的沉迷，学了计算机系可以明目张胆的玩游戏</t>
@@ -2447,7 +2549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2511,16 +2613,16 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1">
-        <v>44249.946064814816</v>
+        <v>44251.814456018517</v>
       </c>
       <c r="C2" s="1">
-        <v>44249.949814814812</v>
+        <v>44251.819560185184</v>
       </c>
       <c r="D2">
-        <v>324</v>
+        <v>441</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -2534,52 +2636,55 @@
       <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1">
-        <v>44249.923379629632</v>
+        <v>44251.721712962964</v>
       </c>
       <c r="C3" s="1">
-        <v>44249.930474537039</v>
+        <v>44251.793912037036</v>
       </c>
       <c r="D3">
-        <v>613</v>
+        <v>6238</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>29</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
@@ -2596,66 +2701,75 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1">
-        <v>44249.924745370372</v>
+        <v>44251.735266203701</v>
       </c>
       <c r="C4" s="1">
-        <v>44249.926099537035</v>
+        <v>44251.737916666665</v>
       </c>
       <c r="D4">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1">
-        <v>44249.921458333331</v>
+        <v>44251.724907407406</v>
       </c>
       <c r="C5" s="1">
-        <v>44249.922812500001</v>
+        <v>44251.729178240741</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>42</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
@@ -2667,291 +2781,285 @@
         <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1">
-        <v>44249.908020833333</v>
+        <v>44251.725289351853</v>
       </c>
       <c r="C6" s="1">
-        <v>44249.915150462963</v>
+        <v>44251.727384259262</v>
       </c>
       <c r="D6">
-        <v>616</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1">
-        <v>44249.885648148149</v>
+        <v>44251.684178240743</v>
       </c>
       <c r="C7" s="1">
-        <v>44249.894004629627</v>
+        <v>44251.686689814815</v>
       </c>
       <c r="D7">
-        <v>722</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1">
-        <v>44249.875069444446</v>
+        <v>44249.946064814816</v>
       </c>
       <c r="C8" s="1">
-        <v>44249.880219907405</v>
+        <v>44249.949814814812</v>
       </c>
       <c r="D8">
-        <v>445</v>
+        <v>324</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1">
-        <v>44249.86277777778</v>
+        <v>44249.923379629632</v>
       </c>
       <c r="C9" s="1">
-        <v>44249.870312500003</v>
+        <v>44249.930474537039</v>
       </c>
       <c r="D9">
-        <v>651</v>
+        <v>613</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B10" s="1">
-        <v>44249.840520833335</v>
+        <v>44249.924745370372</v>
       </c>
       <c r="C10" s="1">
-        <v>44249.844652777778</v>
+        <v>44249.926099537035</v>
       </c>
       <c r="D10">
-        <v>357</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10">
+        <v>74</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1">
-        <v>44249.842106481483</v>
+        <v>44249.921458333331</v>
       </c>
       <c r="C11" s="1">
-        <v>44249.84269675926</v>
+        <v>44249.922812500001</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="Q11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1">
-        <v>44249.823993055557</v>
+        <v>44249.908020833333</v>
       </c>
       <c r="C12" s="1">
-        <v>44249.825833333336</v>
+        <v>44249.915150462963</v>
       </c>
       <c r="D12">
-        <v>159</v>
+        <v>616</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -2960,124 +3068,127 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="R12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44249.885648148149</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44249.894004629627</v>
+      </c>
+      <c r="D13">
+        <v>722</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="1">
-        <v>44249.818159722221</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44249.821064814816</v>
-      </c>
-      <c r="D13">
-        <v>251</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
-      </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1">
-        <v>44249.813622685186</v>
+        <v>44249.875069444446</v>
       </c>
       <c r="C14" s="1">
-        <v>44249.815046296295</v>
+        <v>44249.880219907405</v>
       </c>
       <c r="D14">
-        <v>123</v>
+        <v>445</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14">
+        <v>95</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="P14" t="s">
+        <v>97</v>
       </c>
       <c r="Q14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B15" s="1">
-        <v>44249.788622685184</v>
+        <v>44249.86277777778</v>
       </c>
       <c r="C15" s="1">
-        <v>44249.790023148147</v>
+        <v>44249.870312500003</v>
       </c>
       <c r="D15">
-        <v>121</v>
+        <v>651</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -3085,134 +3196,128 @@
       <c r="K15">
         <v>1</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="P15" t="s">
+        <v>103</v>
       </c>
       <c r="Q15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="R15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1">
-        <v>44249.779039351852</v>
+        <v>44249.840520833335</v>
       </c>
       <c r="C16" s="1">
-        <v>44249.782638888886</v>
+        <v>44249.844652777778</v>
       </c>
       <c r="D16">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>103</v>
-      </c>
       <c r="O16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1">
-        <v>44249.759247685186</v>
+        <v>44249.842106481483</v>
       </c>
       <c r="C17" s="1">
-        <v>44249.761655092596</v>
+        <v>44249.84269675926</v>
       </c>
       <c r="D17">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K17">
+        <v>111</v>
+      </c>
+      <c r="J17">
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P17" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="Q17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1">
-        <v>44249.756481481483</v>
+        <v>44249.823993055557</v>
       </c>
       <c r="C18" s="1">
-        <v>44249.760752314818</v>
+        <v>44249.825833333336</v>
       </c>
       <c r="D18">
-        <v>369</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -3221,126 +3326,132 @@
         <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="Q18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1">
-        <v>44249.752002314817</v>
+        <v>44249.818159722221</v>
       </c>
       <c r="C19" s="1">
-        <v>44249.753553240742</v>
+        <v>44249.821064814816</v>
       </c>
       <c r="D19">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1">
-        <v>44249.753287037034</v>
+        <v>44249.813622685186</v>
       </c>
       <c r="C20" s="1">
-        <v>44249.753530092596</v>
+        <v>44249.815046296295</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>128</v>
       </c>
       <c r="I20" t="s">
-        <v>126</v>
-      </c>
-      <c r="J20">
+        <v>129</v>
+      </c>
+      <c r="K20">
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>127</v>
-      </c>
-      <c r="P20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1">
-        <v>44249.750509259262</v>
+        <v>44249.788622685184</v>
       </c>
       <c r="C21" s="1">
-        <v>44249.751655092594</v>
+        <v>44249.790023148147</v>
       </c>
       <c r="D21">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21">
+        <v>133</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P21" t="s">
         <v>134</v>
       </c>
       <c r="Q21" t="s">
@@ -3352,25 +3463,25 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B22" s="1">
-        <v>44249.745671296296</v>
+        <v>44249.779039351852</v>
       </c>
       <c r="C22" s="1">
-        <v>44249.748912037037</v>
+        <v>44249.782638888886</v>
       </c>
       <c r="D22">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
         <v>137</v>
@@ -3378,691 +3489,688 @@
       <c r="J22">
         <v>1</v>
       </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>138</v>
+      </c>
       <c r="O22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1">
-        <v>44249.745381944442</v>
+        <v>44249.759247685186</v>
       </c>
       <c r="C23" s="1">
-        <v>44249.748483796298</v>
+        <v>44249.761655092596</v>
       </c>
       <c r="D23">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
         <v>143</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
         <v>144</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>145</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>146</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>147</v>
-      </c>
-      <c r="R23" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1">
-        <v>44249.747615740744</v>
+        <v>44249.756481481483</v>
       </c>
       <c r="C24" s="1">
-        <v>44249.748206018521</v>
+        <v>44249.760752314818</v>
       </c>
       <c r="D24">
-        <v>51</v>
+        <v>369</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="I24" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Q24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1">
-        <v>44249.737592592595</v>
+        <v>44249.752002314817</v>
       </c>
       <c r="C25" s="1">
-        <v>44249.741747685184</v>
+        <v>44249.753553240742</v>
       </c>
       <c r="D25">
-        <v>359</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>153</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>155</v>
       </c>
       <c r="O25" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="P25" t="s">
+        <v>157</v>
       </c>
       <c r="Q25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="R25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1">
-        <v>44249.732766203706</v>
+        <v>44249.753287037034</v>
       </c>
       <c r="C26" s="1">
-        <v>44249.733368055553</v>
+        <v>44249.753530092596</v>
       </c>
       <c r="D26">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="I26" t="s">
-        <v>157</v>
-      </c>
-      <c r="K26">
+        <v>160</v>
+      </c>
+      <c r="J26">
         <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="R26" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1">
-        <v>44249.711875000001</v>
+        <v>44249.750509259262</v>
       </c>
       <c r="C27" s="1">
-        <v>44249.732268518521</v>
+        <v>44249.751655092594</v>
       </c>
       <c r="D27">
-        <v>1762</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="I27" t="s">
-        <v>160</v>
-      </c>
-      <c r="M27">
+        <v>166</v>
+      </c>
+      <c r="L27">
         <v>1</v>
       </c>
       <c r="O27" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q27" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="R27" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1">
-        <v>44249.728275462963</v>
+        <v>44249.745671296296</v>
       </c>
       <c r="C28" s="1">
-        <v>44249.730671296296</v>
+        <v>44249.748912037037</v>
       </c>
       <c r="D28">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
       <c r="O28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="R28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1">
-        <v>44249.721145833333</v>
+        <v>44249.745381944442</v>
       </c>
       <c r="C29" s="1">
-        <v>44249.725578703707</v>
+        <v>44249.748483796298</v>
       </c>
       <c r="D29">
-        <v>383</v>
+        <v>268</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="G29" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I29" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>174</v>
-      </c>
       <c r="O29" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="R29" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1">
-        <v>44249.723252314812</v>
+        <v>44249.747615740744</v>
       </c>
       <c r="C30" s="1">
-        <v>44249.724421296298</v>
+        <v>44249.748206018521</v>
       </c>
       <c r="D30">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>179</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="Q30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="R30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1">
-        <v>44249.722094907411</v>
+        <v>44249.737592592595</v>
       </c>
       <c r="C31" s="1">
-        <v>44249.722314814811</v>
+        <v>44249.741747685184</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>159</v>
-      </c>
-      <c r="P31" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="Q31" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="R31" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1">
-        <v>44249.719224537039</v>
+        <v>44249.732766203706</v>
       </c>
       <c r="C32" s="1">
-        <v>44249.721192129633</v>
+        <v>44249.733368055553</v>
       </c>
       <c r="D32">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>185</v>
-      </c>
-      <c r="J32">
+        <v>191</v>
+      </c>
+      <c r="K32">
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q32" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="R32" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1">
-        <v>44249.714525462965</v>
+        <v>44249.711875000001</v>
       </c>
       <c r="C33" s="1">
-        <v>44249.715648148151</v>
+        <v>44249.732268518521</v>
       </c>
       <c r="D33">
-        <v>97</v>
+        <v>1762</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I33" t="s">
-        <v>190</v>
-      </c>
-      <c r="J33">
+        <v>194</v>
+      </c>
+      <c r="M33">
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q33" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="R33" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1">
-        <v>44249.712893518517</v>
+        <v>44249.728275462963</v>
       </c>
       <c r="C34" s="1">
-        <v>44249.714953703704</v>
+        <v>44249.730671296296</v>
       </c>
       <c r="D34">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I34" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q34" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="R34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1">
-        <v>44249.710046296299</v>
+        <v>44249.721145833333</v>
       </c>
       <c r="C35" s="1">
-        <v>44249.713541666664</v>
+        <v>44249.725578703707</v>
       </c>
       <c r="D35">
-        <v>302</v>
+        <v>383</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="I35" t="s">
-        <v>202</v>
+        <v>207</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O35" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q35" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="R35" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B36" s="1">
-        <v>44249.705914351849</v>
+        <v>44249.723252314812</v>
       </c>
       <c r="C36" s="1">
-        <v>44249.707557870373</v>
+        <v>44249.724421296298</v>
       </c>
       <c r="D36">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>208</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>214</v>
       </c>
       <c r="O36" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="Q36" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="R36" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1">
-        <v>44249.701527777775</v>
+        <v>44249.722094907411</v>
       </c>
       <c r="C37" s="1">
-        <v>44249.703101851854</v>
+        <v>44249.722314814811</v>
       </c>
       <c r="D37">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="G37" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="I37" t="s">
-        <v>213</v>
+        <v>193</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
       <c r="O37" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="Q37" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="R37" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1">
-        <v>44249.694907407407</v>
+        <v>44249.719224537039</v>
       </c>
       <c r="C38" s="1">
-        <v>44249.69740740741</v>
+        <v>44249.721192129633</v>
       </c>
       <c r="D38">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>218</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38" t="s">
         <v>219</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
       </c>
       <c r="O38" t="s">
         <v>220</v>
@@ -4079,529 +4187,532 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1">
-        <v>44249.693287037036</v>
+        <v>44249.714525462965</v>
       </c>
       <c r="C39" s="1">
-        <v>44249.696111111109</v>
+        <v>44249.715648148151</v>
       </c>
       <c r="D39">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
       </c>
       <c r="F39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" t="s">
         <v>224</v>
       </c>
-      <c r="G39" t="s">
-        <v>224</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
         <v>225</v>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>226</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>227</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>228</v>
-      </c>
-      <c r="R39" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1">
-        <v>44249.691388888888</v>
+        <v>44249.712893518517</v>
       </c>
       <c r="C40" s="1">
-        <v>44249.691689814812</v>
+        <v>44249.714953703704</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="G40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
       <c r="O40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q40" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R40" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1">
-        <v>44249.684942129628</v>
+        <v>44249.710046296299</v>
       </c>
       <c r="C41" s="1">
-        <v>44249.685289351852</v>
+        <v>44249.713541666664</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>234</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
+        <v>236</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>237</v>
       </c>
       <c r="O41" t="s">
-        <v>235</v>
+        <v>238</v>
+      </c>
+      <c r="P41" t="s">
+        <v>239</v>
       </c>
       <c r="Q41" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="R41" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B42" s="1">
-        <v>44249.679722222223</v>
+        <v>44249.705914351849</v>
       </c>
       <c r="C42" s="1">
-        <v>44249.681157407409</v>
+        <v>44249.707557870373</v>
       </c>
       <c r="D42">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P42" t="s">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="Q42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1">
-        <v>44249.678587962961</v>
+        <v>44249.701527777775</v>
       </c>
       <c r="C43" s="1">
-        <v>44249.680613425924</v>
+        <v>44249.703101851854</v>
       </c>
       <c r="D43">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
       <c r="I43" t="s">
-        <v>245</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P43" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q43" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B44" s="1">
-        <v>44249.679965277777</v>
+        <v>44249.694907407407</v>
       </c>
       <c r="C44" s="1">
-        <v>44249.680393518516</v>
+        <v>44249.69740740741</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="E44" t="s">
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="G44" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="I44" t="s">
-        <v>159</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
+        <v>252</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>253</v>
       </c>
       <c r="O44" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="Q44" t="s">
-        <v>159</v>
+        <v>256</v>
       </c>
       <c r="R44" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1">
-        <v>44249.674988425926</v>
+        <v>44249.693287037036</v>
       </c>
       <c r="C45" s="1">
-        <v>44249.675567129627</v>
+        <v>44249.696111111109</v>
       </c>
       <c r="D45">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="G45" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="I45" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>252</v>
+        <v>260</v>
+      </c>
+      <c r="P45" t="s">
+        <v>261</v>
       </c>
       <c r="Q45" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="R45" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1">
-        <v>44249.669386574074</v>
+        <v>44249.691388888888</v>
       </c>
       <c r="C46" s="1">
-        <v>44249.670624999999</v>
+        <v>44249.691689814812</v>
       </c>
       <c r="D46">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="G46" t="s">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c r="I46" t="s">
-        <v>255</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s">
-        <v>256</v>
+        <v>264</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P46" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q46" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="R46" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B47" s="1">
-        <v>44249.666620370372</v>
+        <v>44249.684942129628</v>
       </c>
       <c r="C47" s="1">
-        <v>44249.668240740742</v>
+        <v>44249.685289351852</v>
       </c>
       <c r="D47">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>261</v>
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
       <c r="O47" t="s">
-        <v>263</v>
-      </c>
-      <c r="P47" t="s">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="Q47" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="R47" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B48" s="1">
-        <v>44249.662361111114</v>
+        <v>44249.679722222223</v>
       </c>
       <c r="C48" s="1">
-        <v>44249.666018518517</v>
+        <v>44249.681157407409</v>
       </c>
       <c r="D48">
-        <v>316</v>
+        <v>124</v>
       </c>
       <c r="E48" t="s">
         <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="I48" t="s">
-        <v>266</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48" t="s">
-        <v>267</v>
+        <v>274</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="P48" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q48" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="R48" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B49" s="1">
-        <v>44249.663263888891</v>
+        <v>44249.678587962961</v>
       </c>
       <c r="C49" s="1">
-        <v>44249.664363425924</v>
+        <v>44249.680613425924</v>
       </c>
       <c r="D49">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="G49" t="s">
-        <v>272</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
       <c r="O49" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P49" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q49" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="R49" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1">
-        <v>44249.650601851848</v>
+        <v>44249.679965277777</v>
       </c>
       <c r="C50" s="1">
-        <v>44249.655763888892</v>
+        <v>44249.680393518516</v>
       </c>
       <c r="D50">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="G50" t="s">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="I50" t="s">
-        <v>278</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50" t="s">
-        <v>279</v>
+        <v>193</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="P50" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="Q50" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="R50" t="s">
-        <v>283</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1">
-        <v>44249.654999999999</v>
+        <v>44249.674988425926</v>
       </c>
       <c r="C51" s="1">
-        <v>44249.655659722222</v>
+        <v>44249.675567129627</v>
       </c>
       <c r="D51">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="G51" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="I51" t="s">
         <v>285</v>
@@ -4609,17 +4720,11 @@
       <c r="J51">
         <v>1</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
       <c r="O51" t="s">
         <v>286</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>287</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>24</v>
       </c>
       <c r="R51" t="s">
         <v>288</v>
@@ -4627,251 +4732,245 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1">
-        <v>44249.653738425928</v>
+        <v>44249.669386574074</v>
       </c>
       <c r="C52" s="1">
-        <v>44249.654652777775</v>
+        <v>44249.670624999999</v>
       </c>
       <c r="D52">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="I52" t="s">
         <v>289</v>
       </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
       <c r="M52">
         <v>1</v>
       </c>
+      <c r="N52" t="s">
+        <v>290</v>
+      </c>
       <c r="O52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P52" t="s">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="Q52" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="R52" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1">
-        <v>44249.651192129626</v>
+        <v>44249.666620370372</v>
       </c>
       <c r="C53" s="1">
-        <v>44249.653541666667</v>
+        <v>44249.668240740742</v>
       </c>
       <c r="D53">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>165</v>
-      </c>
-      <c r="G53" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="I53" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
       <c r="O53" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P53" t="s">
-        <v>294</v>
+        <v>145</v>
       </c>
       <c r="Q53" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="R53" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>44249.648506944446</v>
+        <v>44249.662361111114</v>
       </c>
       <c r="C54" s="1">
-        <v>44249.651585648149</v>
+        <v>44249.666018518517</v>
       </c>
       <c r="D54">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
-      <c r="K54">
-        <v>1</v>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>301</v>
       </c>
       <c r="O54" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P54" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q54" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="R54" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>44249.645115740743</v>
+        <v>44249.663263888891</v>
       </c>
       <c r="C55" s="1">
-        <v>44249.646261574075</v>
+        <v>44249.664363425924</v>
       </c>
       <c r="D55">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="G55" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I55" t="s">
-        <v>304</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55" t="s">
-        <v>305</v>
+        <v>307</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>43</v>
+        <v>308</v>
       </c>
       <c r="P55" t="s">
-        <v>110</v>
+        <v>309</v>
       </c>
       <c r="Q55" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="R55" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1">
-        <v>44249.640625</v>
+        <v>44249.650601851848</v>
       </c>
       <c r="C56" s="1">
-        <v>44249.64130787037</v>
+        <v>44249.655763888892</v>
       </c>
       <c r="D56">
-        <v>59</v>
+        <v>446</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I56" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="O56" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P56" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="Q56" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="R56" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B57" s="1">
-        <v>44249.639166666668</v>
+        <v>44249.654999999999</v>
       </c>
       <c r="C57" s="1">
-        <v>44249.641215277778</v>
+        <v>44249.655659722222</v>
       </c>
       <c r="D57">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>318</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>318</v>
       </c>
       <c r="I57" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4879,412 +4978,427 @@
       <c r="K57">
         <v>1</v>
       </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57" t="s">
-        <v>311</v>
-      </c>
       <c r="O57" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="P57" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q57" t="s">
-        <v>314</v>
+        <v>63</v>
       </c>
       <c r="R57" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1">
-        <v>44249.638993055552</v>
+        <v>44249.653738425928</v>
       </c>
       <c r="C58" s="1">
-        <v>44249.639363425929</v>
+        <v>44249.654652777775</v>
       </c>
       <c r="D58">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E58" t="s">
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="G58" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="I58" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
       <c r="O58" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="P58" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="Q58" t="s">
-        <v>317</v>
+        <v>244</v>
       </c>
       <c r="R58" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B59" s="1">
-        <v>44249.632094907407</v>
+        <v>44249.651192129626</v>
       </c>
       <c r="C59" s="1">
-        <v>44249.63858796296</v>
+        <v>44249.653541666667</v>
       </c>
       <c r="D59">
-        <v>561</v>
+        <v>203</v>
       </c>
       <c r="E59" t="s">
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="I59" t="s">
-        <v>319</v>
-      </c>
-      <c r="K59">
+        <v>326</v>
+      </c>
+      <c r="J59">
         <v>1</v>
       </c>
       <c r="O59" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P59" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q59" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="R59" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1">
-        <v>44249.628692129627</v>
+        <v>44249.648506944446</v>
       </c>
       <c r="C60" s="1">
-        <v>44249.629166666666</v>
+        <v>44249.651585648149</v>
       </c>
       <c r="D60">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I60" t="s">
-        <v>324</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60" t="s">
-        <v>325</v>
+        <v>331</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
       </c>
       <c r="O60" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="P60" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q60" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="R60" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B61" s="1">
-        <v>44249.625081018516</v>
+        <v>44249.645115740743</v>
       </c>
       <c r="C61" s="1">
-        <v>44249.625231481485</v>
+        <v>44249.646261574075</v>
       </c>
       <c r="D61">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>336</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="I61" t="s">
-        <v>159</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
+        <v>338</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>339</v>
       </c>
       <c r="O61" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="P61" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="Q61" t="s">
-        <v>159</v>
+        <v>340</v>
       </c>
       <c r="R61" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B62" s="1">
-        <v>44249.622372685182</v>
+        <v>44249.640625</v>
       </c>
       <c r="C62" s="1">
-        <v>44249.624502314815</v>
+        <v>44249.64130787037</v>
       </c>
       <c r="D62">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>326</v>
+        <v>35</v>
       </c>
       <c r="I62" t="s">
-        <v>327</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
+        <v>341</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>341</v>
       </c>
       <c r="O62" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="P62" t="s">
-        <v>329</v>
+        <v>63</v>
       </c>
       <c r="Q62" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="R62" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1">
-        <v>44249.619791666664</v>
+        <v>44249.639166666668</v>
       </c>
       <c r="C63" s="1">
-        <v>44249.620949074073</v>
+        <v>44249.641215277778</v>
       </c>
       <c r="D63">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>332</v>
+        <v>344</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="O63" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="P63" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="Q63" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="R63" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B64" s="1">
-        <v>44249.616087962961</v>
+        <v>44249.638993055552</v>
       </c>
       <c r="C64" s="1">
-        <v>44249.617523148147</v>
+        <v>44249.639363425929</v>
       </c>
       <c r="D64">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="G64" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="I64" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="P64" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Q64" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="R64" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B65" s="1">
-        <v>44249.610138888886</v>
+        <v>44249.632094907407</v>
       </c>
       <c r="C65" s="1">
-        <v>44249.610405092593</v>
+        <v>44249.63858796296</v>
       </c>
       <c r="D65">
-        <v>23</v>
+        <v>561</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="O65" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="P65" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="Q65" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="R65" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B66" s="1">
-        <v>44249.599004629628</v>
+        <v>44249.628692129627</v>
       </c>
       <c r="C66" s="1">
-        <v>44249.603020833332</v>
+        <v>44249.629166666666</v>
       </c>
       <c r="D66">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
         <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I66" t="s">
-        <v>344</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
+        <v>358</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>359</v>
       </c>
       <c r="O66" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="P66" t="s">
-        <v>24</v>
+        <v>359</v>
       </c>
       <c r="Q66" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="R66" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B67" s="1">
-        <v>44249.599583333336</v>
+        <v>44249.625081018516</v>
       </c>
       <c r="C67" s="1">
-        <v>44249.599733796298</v>
+        <v>44249.625231481485</v>
       </c>
       <c r="D67">
         <v>13</v>
@@ -5293,640 +5407,649 @@
         <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I67" t="s">
-        <v>348</v>
-      </c>
-      <c r="M67">
+        <v>193</v>
+      </c>
+      <c r="K67">
         <v>1</v>
       </c>
       <c r="O67" t="s">
-        <v>349</v>
+        <v>193</v>
       </c>
       <c r="P67" t="s">
-        <v>350</v>
+        <v>193</v>
       </c>
       <c r="Q67" t="s">
-        <v>351</v>
+        <v>193</v>
       </c>
       <c r="R67" t="s">
-        <v>350</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B68" s="1">
-        <v>44249.587523148148</v>
+        <v>44249.622372685182</v>
       </c>
       <c r="C68" s="1">
-        <v>44249.58971064815</v>
+        <v>44249.624502314815</v>
       </c>
       <c r="D68">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
         <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="G68" t="s">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="I68" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68" t="s">
-        <v>353</v>
-      </c>
       <c r="O68" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P68" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q68" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="R68" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B69" s="1">
-        <v>44249.587696759256</v>
+        <v>44249.619791666664</v>
       </c>
       <c r="C69" s="1">
-        <v>44249.588969907411</v>
+        <v>44249.620949074073</v>
       </c>
       <c r="D69">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="G69" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="I69" t="s">
-        <v>358</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>367</v>
       </c>
       <c r="O69" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P69" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q69" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="R69" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B70" s="1">
-        <v>44249.584062499998</v>
+        <v>44249.616087962961</v>
       </c>
       <c r="C70" s="1">
-        <v>44249.587164351855</v>
+        <v>44249.617523148147</v>
       </c>
       <c r="D70">
-        <v>268</v>
+        <v>124</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
       </c>
       <c r="F70" t="s">
-        <v>363</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="O70" t="s">
-        <v>366</v>
+        <v>373</v>
+      </c>
+      <c r="P70" t="s">
+        <v>81</v>
       </c>
       <c r="Q70" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="R70" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B71" s="1">
-        <v>44249.583402777775</v>
+        <v>44249.610138888886</v>
       </c>
       <c r="C71" s="1">
-        <v>44249.584398148145</v>
+        <v>44249.610405092593</v>
       </c>
       <c r="D71">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E71" t="s">
         <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="G71" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="I71" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="O71" t="s">
-        <v>43</v>
+        <v>376</v>
       </c>
       <c r="P71" t="s">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="Q71" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="R71" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B72" s="1">
-        <v>44249.581377314818</v>
+        <v>44249.599004629628</v>
       </c>
       <c r="C72" s="1">
-        <v>44249.583194444444</v>
+        <v>44249.603020833332</v>
       </c>
       <c r="D72">
-        <v>157</v>
+        <v>347</v>
       </c>
       <c r="E72" t="s">
         <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
       </c>
       <c r="I72" t="s">
-        <v>372</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72" t="s">
-        <v>373</v>
+        <v>378</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
       </c>
       <c r="O72" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P72" t="s">
-        <v>375</v>
+        <v>63</v>
       </c>
       <c r="Q72" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="R72" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B73" s="1">
-        <v>44249.560497685183</v>
+        <v>44249.599583333336</v>
       </c>
       <c r="C73" s="1">
-        <v>44249.562071759261</v>
+        <v>44249.599733796298</v>
       </c>
       <c r="D73">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
         <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="I73" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
-      <c r="N73" t="s">
-        <v>379</v>
-      </c>
       <c r="O73" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P73" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q73" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="R73" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B74" s="1">
-        <v>44249.560763888891</v>
+        <v>44249.587523148148</v>
       </c>
       <c r="C74" s="1">
-        <v>44249.560983796298</v>
+        <v>44249.58971064815</v>
       </c>
       <c r="D74">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="G74" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="I74" t="s">
-        <v>384</v>
+        <v>386</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
+      <c r="N74" t="s">
+        <v>387</v>
+      </c>
       <c r="O74" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P74" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q74" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="R74" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B75" s="1">
-        <v>44249.55777777778</v>
+        <v>44249.587696759256</v>
       </c>
       <c r="C75" s="1">
-        <v>44249.559027777781</v>
+        <v>44249.588969907411</v>
       </c>
       <c r="D75">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
         <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>387</v>
+        <v>176</v>
       </c>
       <c r="G75" t="s">
-        <v>388</v>
+        <v>177</v>
       </c>
       <c r="I75" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J75">
         <v>1</v>
       </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75" t="s">
-        <v>390</v>
-      </c>
       <c r="O75" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P75" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q75" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="R75" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B76" s="1">
-        <v>44249.555532407408</v>
+        <v>44249.584062499998</v>
       </c>
       <c r="C76" s="1">
-        <v>44249.557175925926</v>
+        <v>44249.587164351855</v>
       </c>
       <c r="D76">
-        <v>142</v>
+        <v>268</v>
       </c>
       <c r="E76" t="s">
         <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="G76" t="s">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="I76" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
       <c r="O76" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q76" t="s">
-        <v>100</v>
+        <v>401</v>
       </c>
       <c r="R76" t="s">
-        <v>43</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B77" s="1">
-        <v>44249.554363425923</v>
+        <v>44249.583402777775</v>
       </c>
       <c r="C77" s="1">
-        <v>44249.5546875</v>
+        <v>44249.584398148145</v>
       </c>
       <c r="D77">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E77" t="s">
         <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
+        <v>258</v>
+      </c>
+      <c r="G77" t="s">
+        <v>258</v>
       </c>
       <c r="I77" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="O77" t="s">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>399</v>
+        <v>82</v>
       </c>
       <c r="Q77" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="R77" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B78" s="1">
-        <v>44249.548842592594</v>
+        <v>44249.581377314818</v>
       </c>
       <c r="C78" s="1">
-        <v>44249.549143518518</v>
+        <v>44249.583194444444</v>
       </c>
       <c r="D78">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
-      </c>
-      <c r="G78" t="s">
-        <v>326</v>
+        <v>115</v>
       </c>
       <c r="I78" t="s">
-        <v>401</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
+        <v>406</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>407</v>
       </c>
       <c r="O78" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="P78" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q78" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="R78" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B79" s="1">
-        <v>44249.545775462961</v>
+        <v>44249.560497685183</v>
       </c>
       <c r="C79" s="1">
-        <v>44249.546076388891</v>
+        <v>44249.562071759261</v>
       </c>
       <c r="D79">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="G79" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="I79" t="s">
-        <v>159</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
+        <v>412</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>413</v>
       </c>
       <c r="O79" t="s">
-        <v>159</v>
+        <v>414</v>
       </c>
       <c r="P79" t="s">
-        <v>159</v>
+        <v>415</v>
       </c>
       <c r="Q79" t="s">
-        <v>159</v>
+        <v>416</v>
       </c>
       <c r="R79" t="s">
-        <v>159</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B80" s="1">
-        <v>44249.539166666669</v>
+        <v>44249.560763888891</v>
       </c>
       <c r="C80" s="1">
-        <v>44249.540173611109</v>
+        <v>44249.560983796298</v>
       </c>
       <c r="D80">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
         <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="G80" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="I80" t="s">
-        <v>406</v>
-      </c>
-      <c r="J80">
+        <v>418</v>
+      </c>
+      <c r="M80">
         <v>1</v>
       </c>
       <c r="O80" t="s">
-        <v>43</v>
+        <v>419</v>
       </c>
       <c r="P80" t="s">
-        <v>43</v>
+        <v>420</v>
       </c>
       <c r="Q80" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="R80" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B81" s="1">
-        <v>44249.533136574071</v>
+        <v>44249.55777777778</v>
       </c>
       <c r="C81" s="1">
-        <v>44249.53497685185</v>
+        <v>44249.559027777781</v>
       </c>
       <c r="D81">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>421</v>
       </c>
       <c r="G81" t="s">
-        <v>20</v>
+        <v>422</v>
       </c>
       <c r="I81" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>424</v>
+      </c>
       <c r="O81" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="P81" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="Q81" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="R81" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B82" s="1">
-        <v>44249.534409722219</v>
+        <v>44249.555532407408</v>
       </c>
       <c r="C82" s="1">
-        <v>44249.534953703704</v>
+        <v>44249.557175925926</v>
       </c>
       <c r="D82">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
       </c>
       <c r="I82" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -5935,827 +6058,1070 @@
         <v>1</v>
       </c>
       <c r="O82" t="s">
-        <v>43</v>
-      </c>
-      <c r="P82" t="s">
-        <v>43</v>
+        <v>430</v>
       </c>
       <c r="Q82" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="R82" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B83" s="1">
-        <v>44249.528634259259</v>
+        <v>44249.554363425923</v>
       </c>
       <c r="C83" s="1">
-        <v>44249.53329861111</v>
+        <v>44249.5546875</v>
       </c>
       <c r="D83">
-        <v>403</v>
+        <v>28</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>415</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83" t="s">
-        <v>416</v>
+        <v>431</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
       </c>
       <c r="O83" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="P83" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="Q83" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="R83" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B84" s="1">
-        <v>44249.529097222221</v>
+        <v>44249.548842592594</v>
       </c>
       <c r="C84" s="1">
-        <v>44249.531354166669</v>
+        <v>44249.549143518518</v>
       </c>
       <c r="D84">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s">
         <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="G84" t="s">
-        <v>224</v>
+        <v>360</v>
       </c>
       <c r="I84" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="O84" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="P84" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="Q84" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="R84" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B85" s="1">
-        <v>44249.52306712963</v>
+        <v>44249.545775462961</v>
       </c>
       <c r="C85" s="1">
-        <v>44249.523344907408</v>
+        <v>44249.546076388891</v>
       </c>
       <c r="D85">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E85" t="s">
         <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="G85" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="I85" t="s">
-        <v>207</v>
-      </c>
-      <c r="M85">
+        <v>193</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
         <v>1</v>
       </c>
       <c r="O85" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="Q85" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="R85" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B86" s="1">
-        <v>44249.514328703706</v>
+        <v>44249.539166666669</v>
       </c>
       <c r="C86" s="1">
-        <v>44249.522488425922</v>
+        <v>44249.540173611109</v>
       </c>
       <c r="D86">
-        <v>705</v>
+        <v>87</v>
       </c>
       <c r="E86" t="s">
         <v>18</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
+        <v>35</v>
       </c>
       <c r="I86" t="s">
-        <v>426</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86" t="s">
-        <v>427</v>
+        <v>440</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>428</v>
+        <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="Q86" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="R86" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B87" s="1">
-        <v>44249.495706018519</v>
+        <v>44249.533136574071</v>
       </c>
       <c r="C87" s="1">
-        <v>44249.521851851852</v>
+        <v>44249.53497685185</v>
       </c>
       <c r="D87">
-        <v>2259</v>
+        <v>159</v>
       </c>
       <c r="E87" t="s">
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I87" t="s">
-        <v>432</v>
-      </c>
-      <c r="K87">
+        <v>443</v>
+      </c>
+      <c r="J87">
         <v>1</v>
       </c>
       <c r="O87" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="P87" t="s">
-        <v>43</v>
+        <v>445</v>
       </c>
       <c r="Q87" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="R87" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B88" s="1">
-        <v>44249.50508101852</v>
+        <v>44249.534409722219</v>
       </c>
       <c r="C88" s="1">
-        <v>44249.506238425929</v>
+        <v>44249.534953703704</v>
       </c>
       <c r="D88">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E88" t="s">
         <v>18</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>436</v>
+        <v>26</v>
       </c>
       <c r="I88" t="s">
-        <v>437</v>
+        <v>448</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
       </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="O88" t="s">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="Q88" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R88" t="s">
-        <v>440</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B89" s="1">
-        <v>44249.505613425928</v>
+        <v>44249.528634259259</v>
       </c>
       <c r="C89" s="1">
-        <v>44249.506192129629</v>
+        <v>44249.53329861111</v>
       </c>
       <c r="D89">
-        <v>50</v>
+        <v>403</v>
       </c>
       <c r="E89" t="s">
         <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
+        <v>449</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>450</v>
       </c>
       <c r="O89" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="P89" t="s">
-        <v>48</v>
+        <v>452</v>
       </c>
       <c r="Q89" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="R89" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B90" s="1">
-        <v>44249.50340277778</v>
+        <v>44249.529097222221</v>
       </c>
       <c r="C90" s="1">
-        <v>44249.505057870374</v>
+        <v>44249.531354166669</v>
       </c>
       <c r="D90">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="G90" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="I90" t="s">
-        <v>444</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90" t="s">
-        <v>445</v>
+        <v>455</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
       </c>
       <c r="O90" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="P90" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="Q90" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="R90" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B91" s="1">
-        <v>44249.490428240744</v>
+        <v>44249.52306712963</v>
       </c>
       <c r="C91" s="1">
-        <v>44249.492928240739</v>
+        <v>44249.523344907408</v>
       </c>
       <c r="D91">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
         <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="G91" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="I91" t="s">
-        <v>450</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="M91">
         <v>1</v>
       </c>
-      <c r="N91" t="s">
-        <v>451</v>
-      </c>
       <c r="O91" t="s">
-        <v>452</v>
+        <v>241</v>
       </c>
       <c r="P91" t="s">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="Q91" t="s">
-        <v>454</v>
+        <v>241</v>
       </c>
       <c r="R91" t="s">
-        <v>455</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B92" s="1">
-        <v>44249.488252314812</v>
+        <v>44249.514328703706</v>
       </c>
       <c r="C92" s="1">
-        <v>44249.490312499998</v>
+        <v>44249.522488425922</v>
       </c>
       <c r="D92">
-        <v>178</v>
+        <v>705</v>
       </c>
       <c r="E92" t="s">
         <v>18</v>
       </c>
       <c r="F92" t="s">
-        <v>261</v>
-      </c>
-      <c r="G92" t="s">
-        <v>326</v>
+        <v>26</v>
       </c>
       <c r="I92" t="s">
-        <v>456</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
+        <v>460</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>461</v>
       </c>
       <c r="O92" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="P92" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Q92" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="R92" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B93" s="1">
-        <v>44249.488645833335</v>
+        <v>44249.495706018519</v>
       </c>
       <c r="C93" s="1">
-        <v>44249.490243055552</v>
+        <v>44249.521851851852</v>
       </c>
       <c r="D93">
-        <v>138</v>
+        <v>2259</v>
       </c>
       <c r="E93" t="s">
         <v>18</v>
       </c>
       <c r="F93" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="G93" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I93" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="O93" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="P93" t="s">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="Q93" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="R93" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B94" s="1">
-        <v>44249.480462962965</v>
+        <v>44249.50508101852</v>
       </c>
       <c r="C94" s="1">
-        <v>44249.48641203704</v>
+        <v>44249.506238425929</v>
       </c>
       <c r="D94">
-        <v>514</v>
+        <v>100</v>
       </c>
       <c r="E94" t="s">
         <v>18</v>
       </c>
       <c r="F94" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="G94" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="I94" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="O94" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="P94" t="s">
-        <v>44</v>
+        <v>473</v>
       </c>
       <c r="Q94" t="s">
-        <v>468</v>
+        <v>113</v>
       </c>
       <c r="R94" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B95" s="1">
-        <v>44249.483993055554</v>
+        <v>44249.505613425928</v>
       </c>
       <c r="C95" s="1">
-        <v>44249.484131944446</v>
+        <v>44249.506192129629</v>
       </c>
       <c r="D95">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E95" t="s">
         <v>18</v>
       </c>
       <c r="F95" t="s">
-        <v>64</v>
-      </c>
-      <c r="G95" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I95" t="s">
-        <v>470</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="N95" t="s">
-        <v>470</v>
+        <v>80</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
       </c>
       <c r="O95" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P95" t="s">
-        <v>470</v>
+        <v>86</v>
       </c>
       <c r="Q95" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="R95" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B96" s="1">
-        <v>44249.480208333334</v>
+        <v>44249.50340277778</v>
       </c>
       <c r="C96" s="1">
-        <v>44249.48164351852</v>
+        <v>44249.505057870374</v>
       </c>
       <c r="D96">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E96" t="s">
         <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="G96" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="I96" t="s">
-        <v>141</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
+        <v>478</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>479</v>
       </c>
       <c r="O96" t="s">
-        <v>141</v>
+        <v>480</v>
       </c>
       <c r="P96" t="s">
-        <v>141</v>
+        <v>481</v>
       </c>
       <c r="Q96" t="s">
-        <v>141</v>
+        <v>482</v>
       </c>
       <c r="R96" t="s">
-        <v>141</v>
+        <v>483</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B97" s="1">
-        <v>44249.472222222219</v>
+        <v>44249.490428240744</v>
       </c>
       <c r="C97" s="1">
-        <v>44249.474421296298</v>
+        <v>44249.492928240739</v>
       </c>
       <c r="D97">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="E97" t="s">
         <v>18</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="I97" t="s">
-        <v>471</v>
+        <v>484</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>485</v>
+      </c>
       <c r="O97" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="P97" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="Q97" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="R97" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B98" s="1">
-        <v>44249.472175925926</v>
+        <v>44249.488252314812</v>
       </c>
       <c r="C98" s="1">
-        <v>44249.473761574074</v>
+        <v>44249.490312499998</v>
       </c>
       <c r="D98">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="E98" t="s">
         <v>18</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="I98" t="s">
-        <v>476</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="N98" t="s">
-        <v>477</v>
+        <v>490</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
       </c>
       <c r="O98" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="P98" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="Q98" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="R98" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B99" s="1">
-        <v>44249.467743055553</v>
+        <v>44249.488645833335</v>
       </c>
       <c r="C99" s="1">
-        <v>44249.472361111111</v>
+        <v>44249.490243055552</v>
       </c>
       <c r="D99">
-        <v>399</v>
+        <v>138</v>
       </c>
       <c r="E99" t="s">
         <v>18</v>
       </c>
       <c r="F99" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G99" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>482</v>
-      </c>
-      <c r="J99">
+        <v>495</v>
+      </c>
+      <c r="K99">
         <v>1</v>
       </c>
       <c r="O99" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="P99" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="Q99" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="R99" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B100" s="1">
-        <v>44249.467916666668</v>
+        <v>44249.480462962965</v>
       </c>
       <c r="C100" s="1">
-        <v>44249.469166666669</v>
+        <v>44249.48641203704</v>
       </c>
       <c r="D100">
-        <v>108</v>
+        <v>514</v>
       </c>
       <c r="E100" t="s">
         <v>18</v>
       </c>
       <c r="F100" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="G100" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="I100" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
       <c r="O100" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="P100" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="Q100" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="R100" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B101" s="1">
+        <v>44249.483993055554</v>
+      </c>
+      <c r="C101" s="1">
+        <v>44249.484131944446</v>
+      </c>
+      <c r="D101">
+        <v>12</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s">
+        <v>100</v>
+      </c>
+      <c r="G101" t="s">
+        <v>100</v>
+      </c>
+      <c r="I101" t="s">
+        <v>504</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>504</v>
+      </c>
+      <c r="O101" t="s">
+        <v>504</v>
+      </c>
+      <c r="P101" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>504</v>
+      </c>
+      <c r="R101" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102" s="1">
+        <v>44249.480208333334</v>
+      </c>
+      <c r="C102" s="1">
+        <v>44249.48164351852</v>
+      </c>
+      <c r="D102">
+        <v>124</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" t="s">
+        <v>295</v>
+      </c>
+      <c r="G102" t="s">
+        <v>360</v>
+      </c>
+      <c r="I102" t="s">
+        <v>175</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>175</v>
+      </c>
+      <c r="P102" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>175</v>
+      </c>
+      <c r="R102" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>44249.472222222219</v>
+      </c>
+      <c r="C103" s="1">
+        <v>44249.474421296298</v>
+      </c>
+      <c r="D103">
+        <v>190</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" t="s">
+        <v>505</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>506</v>
+      </c>
+      <c r="P103" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>508</v>
+      </c>
+      <c r="R103" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" s="1">
+        <v>44249.472175925926</v>
+      </c>
+      <c r="C104" s="1">
+        <v>44249.473761574074</v>
+      </c>
+      <c r="D104">
+        <v>137</v>
+      </c>
+      <c r="E104" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" t="s">
+        <v>510</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>511</v>
+      </c>
+      <c r="O104" t="s">
+        <v>512</v>
+      </c>
+      <c r="P104" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>514</v>
+      </c>
+      <c r="R104" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105" s="1">
+        <v>44249.467743055553</v>
+      </c>
+      <c r="C105" s="1">
+        <v>44249.472361111111</v>
+      </c>
+      <c r="D105">
+        <v>399</v>
+      </c>
+      <c r="E105" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" t="s">
+        <v>516</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>517</v>
+      </c>
+      <c r="P105" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>519</v>
+      </c>
+      <c r="R105" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1">
+        <v>44249.467916666668</v>
+      </c>
+      <c r="C106" s="1">
+        <v>44249.469166666669</v>
+      </c>
+      <c r="D106">
+        <v>108</v>
+      </c>
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" t="s">
+        <v>100</v>
+      </c>
+      <c r="G106" t="s">
+        <v>100</v>
+      </c>
+      <c r="I106" t="s">
+        <v>521</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>522</v>
+      </c>
+      <c r="P106" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>523</v>
+      </c>
+      <c r="R106" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" s="1">
         <v>44249.467858796299</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C107" s="1">
         <v>44249.468090277776</v>
       </c>
-      <c r="D101">
+      <c r="D107">
         <v>20</v>
       </c>
-      <c r="E101" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" t="s">
-        <v>261</v>
-      </c>
-      <c r="G101" t="s">
-        <v>326</v>
-      </c>
-      <c r="I101" t="s">
-        <v>159</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="M101">
-        <v>1</v>
-      </c>
-      <c r="N101" t="s">
-        <v>159</v>
-      </c>
-      <c r="O101" t="s">
-        <v>159</v>
-      </c>
-      <c r="P101" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>159</v>
-      </c>
-      <c r="R101" t="s">
-        <v>159</v>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" t="s">
+        <v>295</v>
+      </c>
+      <c r="G107" t="s">
+        <v>360</v>
+      </c>
+      <c r="I107" t="s">
+        <v>193</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>193</v>
+      </c>
+      <c r="O107" t="s">
+        <v>193</v>
+      </c>
+      <c r="P107" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>193</v>
+      </c>
+      <c r="R107" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>